--- a/final_project/예측 코드- Python/지역별 방문자 수.xlsx
+++ b/final_project/예측 코드- Python/지역별 방문자 수.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjaud\OneDrive\바탕 화면\예측 코드- Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12월 전자정부기반 e커머스 융합 sw개발자 박정은\Jung_eun\final_project\예측 코드- Python\여행객 데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F2B252-F8DF-4338-9A3D-671F85F192BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12705" yWindow="0" windowWidth="12975" windowHeight="15375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,7 +481,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -491,7 +490,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -766,20 +765,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BI2" sqref="BI2"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="BI3" sqref="BI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="61" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -964,7 +964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1149,48 +1149,192 @@
         <v>39397941</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
+      <c r="B3">
+        <v>192364679</v>
+      </c>
+      <c r="C3">
+        <v>171686798</v>
+      </c>
+      <c r="D3">
+        <v>210242563</v>
+      </c>
+      <c r="E3">
+        <v>189516377</v>
+      </c>
+      <c r="F3">
+        <v>216436894</v>
+      </c>
+      <c r="G3">
+        <v>203677139</v>
+      </c>
+      <c r="H3">
+        <v>211707181</v>
+      </c>
+      <c r="I3">
+        <v>207659108</v>
+      </c>
+      <c r="J3">
+        <v>215060799</v>
+      </c>
+      <c r="K3">
+        <v>217099460</v>
+      </c>
+      <c r="L3">
+        <v>202720355</v>
+      </c>
+      <c r="M3">
+        <v>211875827</v>
+      </c>
+      <c r="N3" s="1">
+        <v>209161375</v>
+      </c>
+      <c r="O3" s="1">
+        <v>182621444</v>
+      </c>
+      <c r="P3" s="1">
+        <v>229520757</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>193707338</v>
+      </c>
+      <c r="R3" s="1">
+        <v>205044615</v>
+      </c>
+      <c r="S3" s="1">
+        <v>199677632</v>
+      </c>
+      <c r="T3" s="1">
+        <v>206443180</v>
+      </c>
+      <c r="U3" s="1">
+        <v>219582862</v>
+      </c>
+      <c r="V3" s="1">
+        <v>207808271</v>
+      </c>
+      <c r="W3" s="1">
+        <v>210379380</v>
+      </c>
+      <c r="X3" s="1">
+        <v>224200105</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>220302304</v>
+      </c>
+      <c r="Z3">
+        <v>220060091</v>
+      </c>
+      <c r="AA3">
+        <v>196867488</v>
+      </c>
+      <c r="AB3">
+        <v>202042910</v>
+      </c>
+      <c r="AC3">
+        <v>202465211</v>
+      </c>
+      <c r="AD3">
+        <v>221067876</v>
+      </c>
+      <c r="AE3">
+        <v>216291101</v>
+      </c>
+      <c r="AF3">
+        <v>227404269</v>
+      </c>
+      <c r="AG3">
+        <v>212920144</v>
+      </c>
+      <c r="AH3">
+        <v>212207098</v>
+      </c>
+      <c r="AI3">
+        <v>226044036</v>
+      </c>
+      <c r="AJ3">
+        <v>215467839</v>
+      </c>
+      <c r="AK3">
+        <v>200203591</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>195960342</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>193211934</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>230666374</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>217556454</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>233946860</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>232507214</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>229145891</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>224290738</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>229010424</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>238934806</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>231165591</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>233356048</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>226269568</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>202358377</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>234218712</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>239170391</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>252909502</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>246383319</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>256885328</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>252770616</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>254043546</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>260418115</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>253142084</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>251897976</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1231,7 +1375,7 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1272,7 +1416,7 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1313,7 +1457,7 @@
       <c r="BH6" s="1"/>
       <c r="BI6" s="1"/>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1354,7 +1498,7 @@
       <c r="BH7" s="1"/>
       <c r="BI7" s="1"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1395,7 +1539,7 @@
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1436,7 +1580,7 @@
       <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1480,7 +1624,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1521,7 +1665,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1562,7 +1706,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1603,7 +1747,7 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1644,7 +1788,7 @@
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1685,7 +1829,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -1726,7 +1870,7 @@
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
